--- a/Code/Results/Cases/Case_1_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4547150553771218</v>
+        <v>0.1662407049093986</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08883344927347991</v>
+        <v>0.2406812144209241</v>
       </c>
       <c r="E2">
-        <v>0.0529619363274012</v>
+        <v>0.1632400434247998</v>
       </c>
       <c r="F2">
-        <v>0.8100705780551181</v>
+        <v>0.9330991215533544</v>
       </c>
       <c r="G2">
-        <v>0.6458923350324</v>
+        <v>0.4657766087619706</v>
       </c>
       <c r="H2">
-        <v>0.3766268405095587</v>
+        <v>0.5615101234332656</v>
       </c>
       <c r="I2">
-        <v>0.2993539041750672</v>
+        <v>0.3661632451992496</v>
       </c>
       <c r="J2">
-        <v>0.04413990246735544</v>
+        <v>0.151185536860881</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.457517028606162</v>
+        <v>0.576508063319352</v>
       </c>
       <c r="N2">
-        <v>1.866109077146461</v>
+        <v>1.324766333497138</v>
       </c>
       <c r="O2">
-        <v>2.110029922543902</v>
+        <v>2.010535735687853</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3962691744245461</v>
+        <v>0.1471823725918</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08778375848524433</v>
+        <v>0.2420724027139087</v>
       </c>
       <c r="E3">
-        <v>0.05402330597813965</v>
+        <v>0.1650069050550975</v>
       </c>
       <c r="F3">
-        <v>0.7296008889328078</v>
+        <v>0.919647765470728</v>
       </c>
       <c r="G3">
-        <v>0.5682850849518246</v>
+        <v>0.4488392227571012</v>
       </c>
       <c r="H3">
-        <v>0.3452234493620097</v>
+        <v>0.5574299128864624</v>
       </c>
       <c r="I3">
-        <v>0.2912665994804335</v>
+        <v>0.3658408523029735</v>
       </c>
       <c r="J3">
-        <v>0.04642031539649949</v>
+        <v>0.1534384553728287</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.269608377777018</v>
+        <v>0.5180052233953774</v>
       </c>
       <c r="N3">
-        <v>1.728033715246283</v>
+        <v>1.282048421507199</v>
       </c>
       <c r="O3">
-        <v>1.879384275022602</v>
+        <v>1.965764170496982</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3603110145650987</v>
+        <v>0.1354552622694314</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08727959585372957</v>
+        <v>0.2430230415639514</v>
       </c>
       <c r="E4">
-        <v>0.05481058967777308</v>
+        <v>0.1661751917371994</v>
       </c>
       <c r="F4">
-        <v>0.6814349445390206</v>
+        <v>0.9119589159233499</v>
       </c>
       <c r="G4">
-        <v>0.5215282313797474</v>
+        <v>0.4387577022019684</v>
       </c>
       <c r="H4">
-        <v>0.326499697931709</v>
+        <v>0.5552159724355761</v>
       </c>
       <c r="I4">
-        <v>0.286678289217015</v>
+        <v>0.3658603238777545</v>
       </c>
       <c r="J4">
-        <v>0.04798367230460876</v>
+        <v>0.1549139033592084</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.154123679305954</v>
+        <v>0.4820230782338655</v>
       </c>
       <c r="N4">
-        <v>1.643982592837716</v>
+        <v>1.256212769797202</v>
       </c>
       <c r="O4">
-        <v>1.740819060492186</v>
+        <v>1.939546256634088</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3456384162463024</v>
+        <v>0.1306704766576701</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08710821331449381</v>
+        <v>0.2434347085586595</v>
       </c>
       <c r="E5">
-        <v>0.05516419954539487</v>
+        <v>0.1666722470441808</v>
       </c>
       <c r="F5">
-        <v>0.6620958981742788</v>
+        <v>0.9089690380368936</v>
       </c>
       <c r="G5">
-        <v>0.5026785830560243</v>
+        <v>0.4347292803214486</v>
       </c>
       <c r="H5">
-        <v>0.3190005103184177</v>
+        <v>0.5543870791450018</v>
       </c>
       <c r="I5">
-        <v>0.2849015515964872</v>
+        <v>0.3659231569378534</v>
       </c>
       <c r="J5">
-        <v>0.04866005592892897</v>
+        <v>0.1555383004255138</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.107027966712145</v>
+        <v>0.4673459374938034</v>
       </c>
       <c r="N5">
-        <v>1.609908528663283</v>
+        <v>1.245785044692767</v>
       </c>
       <c r="O5">
-        <v>1.685056374001647</v>
+        <v>1.929181961860706</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3432008401709794</v>
+        <v>0.1298756239416292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08708177814847318</v>
+        <v>0.2435045322964484</v>
       </c>
       <c r="E6">
-        <v>0.05522485900975482</v>
+        <v>0.1667560489044586</v>
       </c>
       <c r="F6">
-        <v>0.6589014523100829</v>
+        <v>0.9084812308350507</v>
       </c>
       <c r="G6">
-        <v>0.4995603582774635</v>
+        <v>0.434065185270228</v>
       </c>
       <c r="H6">
-        <v>0.3177629153569086</v>
+        <v>0.5542538709802187</v>
       </c>
       <c r="I6">
-        <v>0.2846120924294162</v>
+        <v>0.3659369126941847</v>
       </c>
       <c r="J6">
-        <v>0.04877469357511544</v>
+        <v>0.1556433777741155</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.099205451412018</v>
+        <v>0.464907993360562</v>
       </c>
       <c r="N6">
-        <v>1.604261121099114</v>
+        <v>1.244059647114824</v>
       </c>
       <c r="O6">
-        <v>1.67583772969607</v>
+        <v>1.927480284820376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3601132146684733</v>
+        <v>0.1353907562417334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08727714817023013</v>
+        <v>0.2430284951339772</v>
       </c>
       <c r="E7">
-        <v>0.0548152275314262</v>
+        <v>0.1661818103084318</v>
       </c>
       <c r="F7">
-        <v>0.6811729915944511</v>
+        <v>0.9119180128364377</v>
       </c>
       <c r="G7">
-        <v>0.5212732184358373</v>
+        <v>0.4387030502132916</v>
       </c>
       <c r="H7">
-        <v>0.3263980433827953</v>
+        <v>0.5552044968159322</v>
       </c>
       <c r="I7">
-        <v>0.2866539531899406</v>
+        <v>0.3658609486842792</v>
       </c>
       <c r="J7">
-        <v>0.0479926373443238</v>
+        <v>0.1549222305443738</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.153488680339791</v>
+        <v>0.4818251927051591</v>
       </c>
       <c r="N7">
-        <v>1.643522346576276</v>
+        <v>1.256071728735549</v>
       </c>
       <c r="O7">
-        <v>1.740064257628688</v>
+        <v>1.939405185794101</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.434577109253155</v>
+        <v>0.1596748883226269</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08844163218709866</v>
+        <v>0.2411408926092591</v>
       </c>
       <c r="E8">
-        <v>0.053298946771978</v>
+        <v>0.163831936668279</v>
       </c>
       <c r="F8">
-        <v>0.7820521162891367</v>
+        <v>0.9283426983590743</v>
       </c>
       <c r="G8">
-        <v>0.6189348922664522</v>
+        <v>0.4598705033113788</v>
       </c>
       <c r="H8">
-        <v>0.3656772781738624</v>
+        <v>0.5600428290006079</v>
       </c>
       <c r="I8">
-        <v>0.2964859471239087</v>
+        <v>0.3660070918233771</v>
       </c>
       <c r="J8">
-        <v>0.04489125911274527</v>
+        <v>0.1519431996187954</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.392743701028053</v>
+        <v>0.5563497138096238</v>
       </c>
       <c r="N8">
-        <v>1.818346134906847</v>
+        <v>1.309956510776715</v>
       </c>
       <c r="O8">
-        <v>2.029830337656477</v>
+        <v>1.994834391655331</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5800954791237132</v>
+        <v>0.2070784958907836</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09189683693087858</v>
+        <v>0.2382036222685855</v>
       </c>
       <c r="E9">
-        <v>0.05146324213318998</v>
+        <v>0.159886190976156</v>
       </c>
       <c r="F9">
-        <v>0.9908711375987451</v>
+        <v>0.9650810202261226</v>
       </c>
       <c r="G9">
-        <v>0.8185464186316835</v>
+        <v>0.5039115515563424</v>
       </c>
       <c r="H9">
-        <v>0.447587515038407</v>
+        <v>0.5718413822429653</v>
       </c>
       <c r="I9">
-        <v>0.3188491657956156</v>
+        <v>0.3680094933028819</v>
       </c>
       <c r="J9">
-        <v>0.04018563594889635</v>
+        <v>0.1468337980814542</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.861467668102264</v>
+        <v>0.7019585033537794</v>
       </c>
       <c r="N9">
-        <v>2.167240932670751</v>
+        <v>1.418680917183224</v>
       </c>
       <c r="O9">
-        <v>2.625356063859755</v>
+        <v>2.113638542126807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6868119234572987</v>
+        <v>0.2417532678818759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09523461708324277</v>
+        <v>0.2365104022502322</v>
       </c>
       <c r="E10">
-        <v>0.05089816275089376</v>
+        <v>0.1573915586016259</v>
       </c>
       <c r="F10">
-        <v>1.15268650305039</v>
+        <v>0.994844212469232</v>
       </c>
       <c r="G10">
-        <v>0.9716347418333129</v>
+        <v>0.5378266232374074</v>
       </c>
       <c r="H10">
-        <v>0.5114262009417416</v>
+        <v>0.5819189429804794</v>
       </c>
       <c r="I10">
-        <v>0.3372900842746915</v>
+        <v>0.370514974748744</v>
       </c>
       <c r="J10">
-        <v>0.0376861282167944</v>
+        <v>0.1435281773168864</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.206215537806557</v>
+        <v>0.8085573462053475</v>
       </c>
       <c r="N10">
-        <v>2.42773858768615</v>
+        <v>1.500347060190109</v>
       </c>
       <c r="O10">
-        <v>3.084132162200348</v>
+        <v>2.207118731935623</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7353450019482466</v>
+        <v>0.2574905359920194</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09694656277918767</v>
+        <v>0.2358408025943035</v>
       </c>
       <c r="E11">
-        <v>0.05083237376072169</v>
+        <v>0.1563445906803658</v>
       </c>
       <c r="F11">
-        <v>1.228529896931292</v>
+        <v>1.00898853485738</v>
       </c>
       <c r="G11">
-        <v>1.043035876658507</v>
+        <v>0.5535971819498968</v>
       </c>
       <c r="H11">
-        <v>0.5414268430622542</v>
+        <v>0.5868097174238045</v>
       </c>
       <c r="I11">
-        <v>0.3461465998175015</v>
+        <v>0.3718769730888738</v>
       </c>
       <c r="J11">
-        <v>0.03678496238327611</v>
+        <v>0.1421220671435179</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.363297118110836</v>
+        <v>0.8569584688636809</v>
       </c>
       <c r="N11">
-        <v>2.547264168308345</v>
+        <v>1.537871387701756</v>
       </c>
       <c r="O11">
-        <v>3.298561880728244</v>
+        <v>2.25099823365872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7537236136267609</v>
+        <v>0.263444177063235</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09762443307192115</v>
+        <v>0.2356016968117203</v>
       </c>
       <c r="E12">
-        <v>0.05083684596319316</v>
+        <v>0.1559607756535861</v>
       </c>
       <c r="F12">
-        <v>1.257607330120834</v>
+        <v>1.014431710911339</v>
       </c>
       <c r="G12">
-        <v>1.070359157644646</v>
+        <v>0.5596185055230336</v>
       </c>
       <c r="H12">
-        <v>0.5529401381996877</v>
+        <v>0.5887057757092862</v>
       </c>
       <c r="I12">
-        <v>0.3495702219781265</v>
+        <v>0.3724244726980857</v>
       </c>
       <c r="J12">
-        <v>0.03648013560701102</v>
+        <v>0.1416036831868368</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.422830988482858</v>
+        <v>0.8752724520983577</v>
       </c>
       <c r="N12">
-        <v>2.592682297050857</v>
+        <v>1.552133174701652</v>
       </c>
       <c r="O12">
-        <v>3.380684403739963</v>
+        <v>2.267809454340977</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7497654084470184</v>
+        <v>0.2621622159605295</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09747709621770895</v>
+        <v>0.2356525498075257</v>
       </c>
       <c r="E13">
-        <v>0.05083454467133564</v>
+        <v>0.1560428742667366</v>
       </c>
       <c r="F13">
-        <v>1.251328493450799</v>
+        <v>1.013255554255466</v>
       </c>
       <c r="G13">
-        <v>1.064461376958107</v>
+        <v>0.5583195088454715</v>
       </c>
       <c r="H13">
-        <v>0.5504535068783412</v>
+        <v>0.5882954680688783</v>
       </c>
       <c r="I13">
-        <v>0.3488297340654753</v>
+        <v>0.3723051506506749</v>
       </c>
       <c r="J13">
-        <v>0.0365441238131794</v>
+        <v>0.1417146996241456</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.410006820592429</v>
+        <v>0.871328873260552</v>
       </c>
       <c r="N13">
-        <v>2.582893581930279</v>
+        <v>1.549059350816407</v>
       </c>
       <c r="O13">
-        <v>3.362955159026455</v>
+        <v>2.264180181508607</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7368570054548513</v>
+        <v>0.257980463010739</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09700172801368723</v>
+        <v>0.2358208415724476</v>
       </c>
       <c r="E14">
-        <v>0.05083214157698102</v>
+        <v>0.1563127603913852</v>
       </c>
       <c r="F14">
-        <v>1.230914739436358</v>
+        <v>1.009434603801409</v>
       </c>
       <c r="G14">
-        <v>1.045277870412036</v>
+        <v>0.5540915700557179</v>
       </c>
       <c r="H14">
-        <v>0.5423709003461852</v>
+        <v>0.5869648251065769</v>
       </c>
       <c r="I14">
-        <v>0.3464268479287327</v>
+        <v>0.3719213813284625</v>
       </c>
       <c r="J14">
-        <v>0.03675913914287676</v>
+        <v>0.1420791369819945</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.368193908360666</v>
+        <v>0.858465469055119</v>
       </c>
       <c r="N14">
-        <v>2.550997555996162</v>
+        <v>1.539043677922791</v>
       </c>
       <c r="O14">
-        <v>3.30529906588697</v>
+        <v>2.252377393713289</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7289503232171057</v>
+        <v>0.2554182594109875</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09671445927542521</v>
+        <v>0.2359258073746062</v>
       </c>
       <c r="E15">
-        <v>0.05083455424572492</v>
+        <v>0.1564797211801405</v>
       </c>
       <c r="F15">
-        <v>1.218458361507501</v>
+        <v>1.007105496262653</v>
       </c>
       <c r="G15">
-        <v>1.0335655579986</v>
+        <v>0.5515082663783346</v>
       </c>
       <c r="H15">
-        <v>0.5374404113798192</v>
+        <v>0.5861555005155736</v>
       </c>
       <c r="I15">
-        <v>0.344964187211616</v>
+        <v>0.3716904386364206</v>
       </c>
       <c r="J15">
-        <v>0.03689566306450587</v>
+        <v>0.1423042001304324</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.34258930671443</v>
+        <v>0.8505843378411555</v>
       </c>
       <c r="N15">
-        <v>2.531480968621565</v>
+        <v>1.532915530568516</v>
       </c>
       <c r="O15">
-        <v>3.270106261007982</v>
+        <v>2.2451732459906</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6836400851111648</v>
+        <v>0.2407240258384888</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09512678040290012</v>
+        <v>0.2365561861418399</v>
       </c>
       <c r="E16">
-        <v>0.05090646916682573</v>
+        <v>0.1574617495982142</v>
       </c>
       <c r="F16">
-        <v>1.147777912417482</v>
+        <v>0.9939320236524338</v>
       </c>
       <c r="G16">
-        <v>0.9670066191491031</v>
+        <v>0.5368028804405327</v>
       </c>
       <c r="H16">
-        <v>0.509486133549288</v>
+        <v>0.5816054825242531</v>
       </c>
       <c r="I16">
-        <v>0.336720920001838</v>
+        <v>0.3704304183870448</v>
       </c>
       <c r="J16">
-        <v>0.03774997851808237</v>
+        <v>0.1436220379652742</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.195956158190796</v>
+        <v>0.8053922675442635</v>
       </c>
       <c r="N16">
-        <v>2.419948679687195</v>
+        <v>1.497902142238559</v>
       </c>
       <c r="O16">
-        <v>3.070242238467671</v>
+        <v>2.204278382137147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6558418415085612</v>
+        <v>0.2316999106313347</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09420358650665861</v>
+        <v>0.2369686710959726</v>
       </c>
       <c r="E17">
-        <v>0.05100087709955226</v>
+        <v>0.1580867047413168</v>
       </c>
       <c r="F17">
-        <v>1.105014448715934</v>
+        <v>0.9860054856266913</v>
       </c>
       <c r="G17">
-        <v>0.9266478015724147</v>
+        <v>0.5278693875654028</v>
       </c>
       <c r="H17">
-        <v>0.49259305382013</v>
+        <v>0.5788926539822512</v>
       </c>
       <c r="I17">
-        <v>0.3317855292649838</v>
+        <v>0.3697142029288543</v>
       </c>
       <c r="J17">
-        <v>0.03833621946304788</v>
+        <v>0.1444555234051137</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.106076003778369</v>
+        <v>0.7776440669996418</v>
       </c>
       <c r="N17">
-        <v>2.351795769475842</v>
+        <v>1.476517179070356</v>
       </c>
       <c r="O17">
-        <v>2.949167549702537</v>
+        <v>2.179537853048828</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6398516945078541</v>
+        <v>0.2265060749450072</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0936906982842558</v>
+        <v>0.2372153966329549</v>
       </c>
       <c r="E18">
-        <v>0.05107306185558791</v>
+        <v>0.1584544305887832</v>
       </c>
       <c r="F18">
-        <v>1.080625873999978</v>
+        <v>0.9815032837498734</v>
       </c>
       <c r="G18">
-        <v>0.9035981192236164</v>
+        <v>0.5227633023589391</v>
       </c>
       <c r="H18">
-        <v>0.4829660281550332</v>
+        <v>0.5773611527269509</v>
       </c>
       <c r="I18">
-        <v>0.3289906764893331</v>
+        <v>0.3693231861592992</v>
       </c>
       <c r="J18">
-        <v>0.03869545186607581</v>
+        <v>0.1449441095066533</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.054402307110621</v>
+        <v>0.7616755300297484</v>
       </c>
       <c r="N18">
-        <v>2.312691802268972</v>
+        <v>1.464252412833076</v>
       </c>
       <c r="O18">
-        <v>2.880061592696961</v>
+        <v>2.165435273939522</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6344374175497762</v>
+        <v>0.2247469614999034</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09352010148148793</v>
+        <v>0.2373005615344042</v>
       </c>
       <c r="E19">
-        <v>0.0511005185041391</v>
+        <v>0.158580355826528</v>
       </c>
       <c r="F19">
-        <v>1.072402962341428</v>
+        <v>0.9799886925012231</v>
       </c>
       <c r="G19">
-        <v>0.8958210620829874</v>
+        <v>0.5210400005454972</v>
       </c>
       <c r="H19">
-        <v>0.4797214143444251</v>
+        <v>0.5768475681950633</v>
       </c>
       <c r="I19">
-        <v>0.3280518420784588</v>
+        <v>0.3691943962505704</v>
       </c>
       <c r="J19">
-        <v>0.03882079376189829</v>
+        <v>0.1451111130813043</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.036910028834569</v>
+        <v>0.7562674381876207</v>
       </c>
       <c r="N19">
-        <v>2.299468054321153</v>
+        <v>1.460105886543914</v>
       </c>
       <c r="O19">
-        <v>2.856752165739408</v>
+        <v>2.160682279134022</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6588011357507639</v>
+        <v>0.2326608987972065</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09429997552327762</v>
+        <v>0.2369237808547524</v>
       </c>
       <c r="E20">
-        <v>0.05098896305275247</v>
+        <v>0.1580193213592249</v>
       </c>
       <c r="F20">
-        <v>1.109544929105923</v>
+        <v>0.9868433864356234</v>
       </c>
       <c r="G20">
-        <v>0.9309269059882581</v>
+        <v>0.5288170372694765</v>
       </c>
       <c r="H20">
-        <v>0.4943819932484246</v>
+        <v>0.5791784540341922</v>
       </c>
       <c r="I20">
-        <v>0.3323063529362074</v>
+        <v>0.3697882805466008</v>
       </c>
       <c r="J20">
-        <v>0.03827151419208974</v>
+        <v>0.1443658463150239</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.115641423820605</v>
+        <v>0.7805988004632809</v>
       </c>
       <c r="N20">
-        <v>2.359040785728354</v>
+        <v>1.478790003518327</v>
       </c>
       <c r="O20">
-        <v>2.962000303372292</v>
+        <v>2.18215832561205</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7406484942814586</v>
+        <v>0.2592089042809391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09714053745802431</v>
+        <v>0.2357710179759209</v>
       </c>
       <c r="E21">
-        <v>0.05083203434574024</v>
+        <v>0.1562331448777243</v>
       </c>
       <c r="F21">
-        <v>1.236900758107964</v>
+        <v>1.010554547300785</v>
       </c>
       <c r="G21">
-        <v>1.050904522252083</v>
+        <v>0.5553320777652146</v>
       </c>
       <c r="H21">
-        <v>0.544740690985563</v>
+        <v>0.5873544725889985</v>
       </c>
       <c r="I21">
-        <v>0.347130716633842</v>
+        <v>0.3720332439840917</v>
       </c>
       <c r="J21">
-        <v>0.03669497456646553</v>
+        <v>0.141971710465512</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.380473885392135</v>
+        <v>0.86224416620216</v>
       </c>
       <c r="N21">
-        <v>2.560361871332702</v>
+        <v>1.541984121825806</v>
       </c>
       <c r="O21">
-        <v>3.322208192487949</v>
+        <v>2.255838864824511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7941426263474796</v>
+        <v>0.2765259947411209</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09917039966150298</v>
+        <v>0.2351018798655673</v>
       </c>
       <c r="E22">
-        <v>0.05090171040574276</v>
+        <v>0.1551395107209945</v>
       </c>
       <c r="F22">
-        <v>1.32223593715571</v>
+        <v>1.026558448265305</v>
       </c>
       <c r="G22">
-        <v>1.130996077460082</v>
+        <v>0.5729489222825066</v>
       </c>
       <c r="H22">
-        <v>0.5785507390169187</v>
+        <v>0.5929545856367326</v>
       </c>
       <c r="I22">
-        <v>0.3572277538565558</v>
+        <v>0.3736853646768594</v>
       </c>
       <c r="J22">
-        <v>0.03587821222370735</v>
+        <v>0.1404890886197627</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.553859059604235</v>
+        <v>0.9155191562828549</v>
       </c>
       <c r="N22">
-        <v>2.692853122826364</v>
+        <v>1.583588281711201</v>
       </c>
       <c r="O22">
-        <v>3.563054314303372</v>
+        <v>2.305130077566218</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7655908935464879</v>
+        <v>0.2672867663774525</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09807054870609022</v>
+        <v>0.2354513073415845</v>
       </c>
       <c r="E23">
-        <v>0.0508481104802847</v>
+        <v>0.1557164518137455</v>
       </c>
       <c r="F23">
-        <v>1.276486045165242</v>
+        <v>1.017970433851971</v>
       </c>
       <c r="G23">
-        <v>1.088084783028023</v>
+        <v>0.563520115489581</v>
       </c>
       <c r="H23">
-        <v>0.5604183891605317</v>
+        <v>0.5899422323240913</v>
       </c>
       <c r="I23">
-        <v>0.351800504465686</v>
+        <v>0.3727867493082471</v>
       </c>
       <c r="J23">
-        <v>0.03629371773915224</v>
+        <v>0.1412728678924822</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.461287498815167</v>
+        <v>0.887093512950301</v>
       </c>
       <c r="N23">
-        <v>2.622053001850617</v>
+        <v>1.561356159312879</v>
       </c>
       <c r="O23">
-        <v>3.433978726973692</v>
+        <v>2.278718362981692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6574632656574408</v>
+        <v>0.2322264539268986</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09425634252493609</v>
+        <v>0.2369440458836394</v>
       </c>
       <c r="E24">
-        <v>0.05099429375358255</v>
+        <v>0.1580497591262784</v>
       </c>
       <c r="F24">
-        <v>1.107496088910253</v>
+        <v>0.9864644005635057</v>
       </c>
       <c r="G24">
-        <v>0.9289918482802193</v>
+        <v>0.5283885117135725</v>
       </c>
       <c r="H24">
-        <v>0.4935729499735544</v>
+        <v>0.5790491561699014</v>
       </c>
       <c r="I24">
-        <v>0.3320707561565897</v>
+        <v>0.3697547254213589</v>
       </c>
       <c r="J24">
-        <v>0.03830069850136297</v>
+        <v>0.1444063600368697</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.11131689969676</v>
+        <v>0.7792630143476487</v>
       </c>
       <c r="N24">
-        <v>2.35576507145953</v>
+        <v>1.477762366842484</v>
       </c>
       <c r="O24">
-        <v>2.956197060759422</v>
+        <v>2.180973232814523</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5407719226674317</v>
+        <v>0.1942799304984817</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09082819207080206</v>
+        <v>0.2389165262486372</v>
       </c>
       <c r="E25">
-        <v>0.05182905730989518</v>
+        <v>0.1608826569196502</v>
       </c>
       <c r="F25">
-        <v>0.9330351756493513</v>
+        <v>0.9546563525556877</v>
       </c>
       <c r="G25">
-        <v>0.7635311059138559</v>
+        <v>0.4917247177410076</v>
       </c>
       <c r="H25">
-        <v>0.4248382964842676</v>
+        <v>0.5684021383309528</v>
       </c>
       <c r="I25">
-        <v>0.3124561397307701</v>
+        <v>0.3672853152251996</v>
       </c>
       <c r="J25">
-        <v>0.04129946032158571</v>
+        <v>0.1481374327590608</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.73465044162775</v>
+        <v>0.6626302535026838</v>
       </c>
       <c r="N25">
-        <v>2.072160228799987</v>
+        <v>1.388948871434394</v>
       </c>
       <c r="O25">
-        <v>2.460872757334897</v>
+        <v>2.080413371653037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1662407049093986</v>
+        <v>0.4547150553773207</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2406812144209241</v>
+        <v>0.08883344927370729</v>
       </c>
       <c r="E2">
-        <v>0.1632400434247998</v>
+        <v>0.05296193632740298</v>
       </c>
       <c r="F2">
-        <v>0.9330991215533544</v>
+        <v>0.8100705780551323</v>
       </c>
       <c r="G2">
-        <v>0.4657766087619706</v>
+        <v>0.6458923350323147</v>
       </c>
       <c r="H2">
-        <v>0.5615101234332656</v>
+        <v>0.376626840509644</v>
       </c>
       <c r="I2">
-        <v>0.3661632451992496</v>
+        <v>0.2993539041750353</v>
       </c>
       <c r="J2">
-        <v>0.151185536860881</v>
+        <v>0.04413990246726129</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.576508063319352</v>
+        <v>1.457517028606119</v>
       </c>
       <c r="N2">
-        <v>1.324766333497138</v>
+        <v>1.866109077146433</v>
       </c>
       <c r="O2">
-        <v>2.010535735687853</v>
+        <v>2.110029922543902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1471823725918</v>
+        <v>0.3962691744246882</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2420724027139087</v>
+        <v>0.0877837584851946</v>
       </c>
       <c r="E3">
-        <v>0.1650069050550975</v>
+        <v>0.05402330597816807</v>
       </c>
       <c r="F3">
-        <v>0.919647765470728</v>
+        <v>0.7296008889328078</v>
       </c>
       <c r="G3">
-        <v>0.4488392227571012</v>
+        <v>0.5682850849518388</v>
       </c>
       <c r="H3">
-        <v>0.5574299128864624</v>
+        <v>0.3452234493619954</v>
       </c>
       <c r="I3">
-        <v>0.3658408523029735</v>
+        <v>0.29126659948043</v>
       </c>
       <c r="J3">
-        <v>0.1534384553728287</v>
+        <v>0.04642031539650304</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5180052233953774</v>
+        <v>1.269608377777004</v>
       </c>
       <c r="N3">
-        <v>1.282048421507199</v>
+        <v>1.728033715246283</v>
       </c>
       <c r="O3">
-        <v>1.965764170496982</v>
+        <v>1.87938427502263</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1354552622694314</v>
+        <v>0.3603110145649993</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2430230415639514</v>
+        <v>0.08727959585367984</v>
       </c>
       <c r="E4">
-        <v>0.1661751917371994</v>
+        <v>0.05481058967778729</v>
       </c>
       <c r="F4">
-        <v>0.9119589159233499</v>
+        <v>0.6814349445390206</v>
       </c>
       <c r="G4">
-        <v>0.4387577022019684</v>
+        <v>0.5215282313797616</v>
       </c>
       <c r="H4">
-        <v>0.5552159724355761</v>
+        <v>0.3264996979317232</v>
       </c>
       <c r="I4">
-        <v>0.3658603238777545</v>
+        <v>0.286678289217015</v>
       </c>
       <c r="J4">
-        <v>0.1549139033592084</v>
+        <v>0.04798367230461054</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4820230782338655</v>
+        <v>1.154123679305954</v>
       </c>
       <c r="N4">
-        <v>1.256212769797202</v>
+        <v>1.643982592837716</v>
       </c>
       <c r="O4">
-        <v>1.939546256634088</v>
+        <v>1.740819060492271</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1306704766576701</v>
+        <v>0.3456384162460466</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2434347085586595</v>
+        <v>0.08710821331431617</v>
       </c>
       <c r="E5">
-        <v>0.1666722470441808</v>
+        <v>0.05516419954538954</v>
       </c>
       <c r="F5">
-        <v>0.9089690380368936</v>
+        <v>0.6620958981742788</v>
       </c>
       <c r="G5">
-        <v>0.4347292803214486</v>
+        <v>0.5026785830560385</v>
       </c>
       <c r="H5">
-        <v>0.5543870791450018</v>
+        <v>0.3190005103184177</v>
       </c>
       <c r="I5">
-        <v>0.3659231569378534</v>
+        <v>0.2849015515964552</v>
       </c>
       <c r="J5">
-        <v>0.1555383004255138</v>
+        <v>0.04866005592895384</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4673459374938034</v>
+        <v>1.107027966712153</v>
       </c>
       <c r="N5">
-        <v>1.245785044692767</v>
+        <v>1.609908528663269</v>
       </c>
       <c r="O5">
-        <v>1.929181961860706</v>
+        <v>1.68505637400159</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1298756239416292</v>
+        <v>0.3432008401711215</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2435045322964484</v>
+        <v>0.08708177814825291</v>
       </c>
       <c r="E6">
-        <v>0.1667560489044586</v>
+        <v>0.05522485900975127</v>
       </c>
       <c r="F6">
-        <v>0.9084812308350507</v>
+        <v>0.6589014523100758</v>
       </c>
       <c r="G6">
-        <v>0.434065185270228</v>
+        <v>0.4995603582775345</v>
       </c>
       <c r="H6">
-        <v>0.5542538709802187</v>
+        <v>0.3177629153567949</v>
       </c>
       <c r="I6">
-        <v>0.3659369126941847</v>
+        <v>0.2846120924294198</v>
       </c>
       <c r="J6">
-        <v>0.1556433777741155</v>
+        <v>0.04877469357518471</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.464907993360562</v>
+        <v>1.099205451412004</v>
       </c>
       <c r="N6">
-        <v>1.244059647114824</v>
+        <v>1.604261121099086</v>
       </c>
       <c r="O6">
-        <v>1.927480284820376</v>
+        <v>1.675837729695985</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1353907562417334</v>
+        <v>0.3601132146684591</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2430284951339772</v>
+        <v>0.08727714817029408</v>
       </c>
       <c r="E7">
-        <v>0.1661818103084318</v>
+        <v>0.0548152275314564</v>
       </c>
       <c r="F7">
-        <v>0.9119180128364377</v>
+        <v>0.6811729915944369</v>
       </c>
       <c r="G7">
-        <v>0.4387030502132916</v>
+        <v>0.5212732184358231</v>
       </c>
       <c r="H7">
-        <v>0.5552044968159322</v>
+        <v>0.3263980433827953</v>
       </c>
       <c r="I7">
-        <v>0.3658609486842792</v>
+        <v>0.2866539531899406</v>
       </c>
       <c r="J7">
-        <v>0.1549222305443738</v>
+        <v>0.04799263734435044</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4818251927051591</v>
+        <v>1.153488680339777</v>
       </c>
       <c r="N7">
-        <v>1.256071728735549</v>
+        <v>1.643522346576276</v>
       </c>
       <c r="O7">
-        <v>1.939405185794101</v>
+        <v>1.740064257628688</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1596748883226269</v>
+        <v>0.4345771092532829</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2411408926092591</v>
+        <v>0.08844163218715551</v>
       </c>
       <c r="E8">
-        <v>0.163831936668279</v>
+        <v>0.053298946771978</v>
       </c>
       <c r="F8">
-        <v>0.9283426983590743</v>
+        <v>0.7820521162891367</v>
       </c>
       <c r="G8">
-        <v>0.4598705033113788</v>
+        <v>0.6189348922663953</v>
       </c>
       <c r="H8">
-        <v>0.5600428290006079</v>
+        <v>0.3656772781739903</v>
       </c>
       <c r="I8">
-        <v>0.3660070918233771</v>
+        <v>0.2964859471238803</v>
       </c>
       <c r="J8">
-        <v>0.1519431996187954</v>
+        <v>0.04489125911280212</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5563497138096238</v>
+        <v>1.392743701028024</v>
       </c>
       <c r="N8">
-        <v>1.309956510776715</v>
+        <v>1.818346134906847</v>
       </c>
       <c r="O8">
-        <v>1.994834391655331</v>
+        <v>2.029830337656506</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2070784958907836</v>
+        <v>0.5800954791233721</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2382036222685855</v>
+        <v>0.09189683693080752</v>
       </c>
       <c r="E9">
-        <v>0.159886190976156</v>
+        <v>0.05146324213318998</v>
       </c>
       <c r="F9">
-        <v>0.9650810202261226</v>
+        <v>0.9908711375987593</v>
       </c>
       <c r="G9">
-        <v>0.5039115515563424</v>
+        <v>0.8185464186317404</v>
       </c>
       <c r="H9">
-        <v>0.5718413822429653</v>
+        <v>0.447587515038407</v>
       </c>
       <c r="I9">
-        <v>0.3680094933028819</v>
+        <v>0.3188491657956192</v>
       </c>
       <c r="J9">
-        <v>0.1468337980814542</v>
+        <v>0.04018563594895674</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7019585033537794</v>
+        <v>1.861467668102222</v>
       </c>
       <c r="N9">
-        <v>1.418680917183224</v>
+        <v>2.167240932670637</v>
       </c>
       <c r="O9">
-        <v>2.113638542126807</v>
+        <v>2.625356063859812</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2417532678818759</v>
+        <v>0.6868119234571566</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2365104022502322</v>
+        <v>0.0952346170832854</v>
       </c>
       <c r="E10">
-        <v>0.1573915586016259</v>
+        <v>0.05089816275089376</v>
       </c>
       <c r="F10">
-        <v>0.994844212469232</v>
+        <v>1.152686503050376</v>
       </c>
       <c r="G10">
-        <v>0.5378266232374074</v>
+        <v>0.9716347418333413</v>
       </c>
       <c r="H10">
-        <v>0.5819189429804794</v>
+        <v>0.5114262009416279</v>
       </c>
       <c r="I10">
-        <v>0.370514974748744</v>
+        <v>0.33729008427472</v>
       </c>
       <c r="J10">
-        <v>0.1435281773168864</v>
+        <v>0.0376861282168548</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8085573462053475</v>
+        <v>2.206215537806557</v>
       </c>
       <c r="N10">
-        <v>1.500347060190109</v>
+        <v>2.427738587686036</v>
       </c>
       <c r="O10">
-        <v>2.207118731935623</v>
+        <v>3.084132162200348</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2574905359920194</v>
+        <v>0.7353450019480192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2358408025943035</v>
+        <v>0.09694656277921609</v>
       </c>
       <c r="E11">
-        <v>0.1563445906803658</v>
+        <v>0.05083237376071992</v>
       </c>
       <c r="F11">
-        <v>1.00898853485738</v>
+        <v>1.228529896931306</v>
       </c>
       <c r="G11">
-        <v>0.5535971819498968</v>
+        <v>1.043035876658507</v>
       </c>
       <c r="H11">
-        <v>0.5868097174238045</v>
+        <v>0.5414268430623679</v>
       </c>
       <c r="I11">
-        <v>0.3718769730888738</v>
+        <v>0.346146599817466</v>
       </c>
       <c r="J11">
-        <v>0.1421220671435179</v>
+        <v>0.03678496238332585</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8569584688636809</v>
+        <v>2.36329711811085</v>
       </c>
       <c r="N11">
-        <v>1.537871387701756</v>
+        <v>2.547264168308459</v>
       </c>
       <c r="O11">
-        <v>2.25099823365872</v>
+        <v>3.298561880728187</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.263444177063235</v>
+        <v>0.7537236136265051</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2356016968117203</v>
+        <v>0.09762443307180746</v>
       </c>
       <c r="E12">
-        <v>0.1559607756535861</v>
+        <v>0.05083684596320559</v>
       </c>
       <c r="F12">
-        <v>1.014431710911339</v>
+        <v>1.257607330120848</v>
       </c>
       <c r="G12">
-        <v>0.5596185055230336</v>
+        <v>1.07035915764456</v>
       </c>
       <c r="H12">
-        <v>0.5887057757092862</v>
+        <v>0.5529401381996877</v>
       </c>
       <c r="I12">
-        <v>0.3724244726980857</v>
+        <v>0.3495702219781265</v>
       </c>
       <c r="J12">
-        <v>0.1416036831868368</v>
+        <v>0.03648013560693286</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8752724520983577</v>
+        <v>2.422830988482858</v>
       </c>
       <c r="N12">
-        <v>1.552133174701652</v>
+        <v>2.592682297050857</v>
       </c>
       <c r="O12">
-        <v>2.267809454340977</v>
+        <v>3.380684403739963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2621622159605295</v>
+        <v>0.7497654084469332</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2356525498075257</v>
+        <v>0.09747709621770895</v>
       </c>
       <c r="E13">
-        <v>0.1560428742667366</v>
+        <v>0.05083454467135518</v>
       </c>
       <c r="F13">
-        <v>1.013255554255466</v>
+        <v>1.251328493450814</v>
       </c>
       <c r="G13">
-        <v>0.5583195088454715</v>
+        <v>1.064461376958079</v>
       </c>
       <c r="H13">
-        <v>0.5882954680688783</v>
+        <v>0.5504535068783412</v>
       </c>
       <c r="I13">
-        <v>0.3723051506506749</v>
+        <v>0.3488297340654825</v>
       </c>
       <c r="J13">
-        <v>0.1417146996241456</v>
+        <v>0.03654412381314742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.871328873260552</v>
+        <v>2.410006820592471</v>
       </c>
       <c r="N13">
-        <v>1.549059350816407</v>
+        <v>2.582893581930279</v>
       </c>
       <c r="O13">
-        <v>2.264180181508607</v>
+        <v>3.362955159026399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.257980463010739</v>
+        <v>0.7368570054543682</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2358208415724476</v>
+        <v>0.09700172801356644</v>
       </c>
       <c r="E14">
-        <v>0.1563127603913852</v>
+        <v>0.05083214157698457</v>
       </c>
       <c r="F14">
-        <v>1.009434603801409</v>
+        <v>1.230914739436358</v>
       </c>
       <c r="G14">
-        <v>0.5540915700557179</v>
+        <v>1.045277870412065</v>
       </c>
       <c r="H14">
-        <v>0.5869648251065769</v>
+        <v>0.5423709003461852</v>
       </c>
       <c r="I14">
-        <v>0.3719213813284625</v>
+        <v>0.3464268479287043</v>
       </c>
       <c r="J14">
-        <v>0.1420791369819945</v>
+        <v>0.03675913914277373</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.858465469055119</v>
+        <v>2.368193908360709</v>
       </c>
       <c r="N14">
-        <v>1.539043677922791</v>
+        <v>2.550997555996048</v>
       </c>
       <c r="O14">
-        <v>2.252377393713289</v>
+        <v>3.30529906588697</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2554182594109875</v>
+        <v>0.7289503232171057</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2359258073746062</v>
+        <v>0.09671445927549627</v>
       </c>
       <c r="E15">
-        <v>0.1564797211801405</v>
+        <v>0.05083455424572669</v>
       </c>
       <c r="F15">
-        <v>1.007105496262653</v>
+        <v>1.218458361507501</v>
       </c>
       <c r="G15">
-        <v>0.5515082663783346</v>
+        <v>1.033565557998557</v>
       </c>
       <c r="H15">
-        <v>0.5861555005155736</v>
+        <v>0.5374404113796913</v>
       </c>
       <c r="I15">
-        <v>0.3716904386364206</v>
+        <v>0.3449641872116089</v>
       </c>
       <c r="J15">
-        <v>0.1423042001304324</v>
+        <v>0.03689566306442771</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8505843378411555</v>
+        <v>2.342589306714402</v>
       </c>
       <c r="N15">
-        <v>1.532915530568516</v>
+        <v>2.531480968621565</v>
       </c>
       <c r="O15">
-        <v>2.2451732459906</v>
+        <v>3.270106261008038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2407240258384888</v>
+        <v>0.6836400851112501</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2365561861418399</v>
+        <v>0.09512678040280065</v>
       </c>
       <c r="E16">
-        <v>0.1574617495982142</v>
+        <v>0.0509064691668133</v>
       </c>
       <c r="F16">
-        <v>0.9939320236524338</v>
+        <v>1.147777912417467</v>
       </c>
       <c r="G16">
-        <v>0.5368028804405327</v>
+        <v>0.9670066191490463</v>
       </c>
       <c r="H16">
-        <v>0.5816054825242531</v>
+        <v>0.5094861335492737</v>
       </c>
       <c r="I16">
-        <v>0.3704304183870448</v>
+        <v>0.3367209200018308</v>
       </c>
       <c r="J16">
-        <v>0.1436220379652742</v>
+        <v>0.0377499785181854</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8053922675442635</v>
+        <v>2.195956158190768</v>
       </c>
       <c r="N16">
-        <v>1.497902142238559</v>
+        <v>2.419948679687309</v>
       </c>
       <c r="O16">
-        <v>2.204278382137147</v>
+        <v>3.070242238467614</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2316999106313347</v>
+        <v>0.6558418415085896</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2369686710959726</v>
+        <v>0.09420358650662308</v>
       </c>
       <c r="E17">
-        <v>0.1580867047413168</v>
+        <v>0.05100087709955403</v>
       </c>
       <c r="F17">
-        <v>0.9860054856266913</v>
+        <v>1.105014448715949</v>
       </c>
       <c r="G17">
-        <v>0.5278693875654028</v>
+        <v>0.9266478015724147</v>
       </c>
       <c r="H17">
-        <v>0.5788926539822512</v>
+        <v>0.4925930538202437</v>
       </c>
       <c r="I17">
-        <v>0.3697142029288543</v>
+        <v>0.3317855292649838</v>
       </c>
       <c r="J17">
-        <v>0.1444555234051137</v>
+        <v>0.0383362194630088</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7776440669996418</v>
+        <v>2.106076003778384</v>
       </c>
       <c r="N17">
-        <v>1.476517179070356</v>
+        <v>2.351795769475842</v>
       </c>
       <c r="O17">
-        <v>2.179537853048828</v>
+        <v>2.949167549702537</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2265060749450072</v>
+        <v>0.6398516945077972</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2372153966329549</v>
+        <v>0.09369069828432686</v>
       </c>
       <c r="E18">
-        <v>0.1584544305887832</v>
+        <v>0.05107306185558791</v>
       </c>
       <c r="F18">
-        <v>0.9815032837498734</v>
+        <v>1.080625873999978</v>
       </c>
       <c r="G18">
-        <v>0.5227633023589391</v>
+        <v>0.9035981192236022</v>
       </c>
       <c r="H18">
-        <v>0.5773611527269509</v>
+        <v>0.4829660281550474</v>
       </c>
       <c r="I18">
-        <v>0.3693231861592992</v>
+        <v>0.3289906764893544</v>
       </c>
       <c r="J18">
-        <v>0.1449441095066533</v>
+        <v>0.03869545186606871</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7616755300297484</v>
+        <v>2.054402307110621</v>
       </c>
       <c r="N18">
-        <v>1.464252412833076</v>
+        <v>2.312691802269086</v>
       </c>
       <c r="O18">
-        <v>2.165435273939522</v>
+        <v>2.880061592696876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2247469614999034</v>
+        <v>0.6344374175498899</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2373005615344042</v>
+        <v>0.09352010148137424</v>
       </c>
       <c r="E19">
-        <v>0.158580355826528</v>
+        <v>0.05110051850410535</v>
       </c>
       <c r="F19">
-        <v>0.9799886925012231</v>
+        <v>1.072402962341442</v>
       </c>
       <c r="G19">
-        <v>0.5210400005454972</v>
+        <v>0.8958210620830016</v>
       </c>
       <c r="H19">
-        <v>0.5768475681950633</v>
+        <v>0.4797214143444393</v>
       </c>
       <c r="I19">
-        <v>0.3691943962505704</v>
+        <v>0.3280518420784517</v>
       </c>
       <c r="J19">
-        <v>0.1451111130813043</v>
+        <v>0.03882079376188941</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7562674381876207</v>
+        <v>2.036910028834569</v>
       </c>
       <c r="N19">
-        <v>1.460105886543914</v>
+        <v>2.299468054321125</v>
       </c>
       <c r="O19">
-        <v>2.160682279134022</v>
+        <v>2.85675216573938</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2326608987972065</v>
+        <v>0.6588011357507639</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2369237808547524</v>
+        <v>0.09429997552327762</v>
       </c>
       <c r="E20">
-        <v>0.1580193213592249</v>
+        <v>0.05098896305277201</v>
       </c>
       <c r="F20">
-        <v>0.9868433864356234</v>
+        <v>1.109544929105937</v>
       </c>
       <c r="G20">
-        <v>0.5288170372694765</v>
+        <v>0.9309269059882581</v>
       </c>
       <c r="H20">
-        <v>0.5791784540341922</v>
+        <v>0.4943819932484388</v>
       </c>
       <c r="I20">
-        <v>0.3697882805466008</v>
+        <v>0.3323063529362074</v>
       </c>
       <c r="J20">
-        <v>0.1443658463150239</v>
+        <v>0.03827151419214658</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7805988004632809</v>
+        <v>2.11564142382062</v>
       </c>
       <c r="N20">
-        <v>1.478790003518327</v>
+        <v>2.359040785728212</v>
       </c>
       <c r="O20">
-        <v>2.18215832561205</v>
+        <v>2.962000303372292</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2592089042809391</v>
+        <v>0.7406484942811176</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2357710179759209</v>
+        <v>0.0971405374580101</v>
       </c>
       <c r="E21">
-        <v>0.1562331448777243</v>
+        <v>0.05083203434572248</v>
       </c>
       <c r="F21">
-        <v>1.010554547300785</v>
+        <v>1.236900758107964</v>
       </c>
       <c r="G21">
-        <v>0.5553320777652146</v>
+        <v>1.050904522252111</v>
       </c>
       <c r="H21">
-        <v>0.5873544725889985</v>
+        <v>0.544740690985563</v>
       </c>
       <c r="I21">
-        <v>0.3720332439840917</v>
+        <v>0.3471307166338491</v>
       </c>
       <c r="J21">
-        <v>0.141971710465512</v>
+        <v>0.03669497456647619</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.86224416620216</v>
+        <v>2.380473885392135</v>
       </c>
       <c r="N21">
-        <v>1.541984121825806</v>
+        <v>2.560361871332589</v>
       </c>
       <c r="O21">
-        <v>2.255838864824511</v>
+        <v>3.322208192487892</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2765259947411209</v>
+        <v>0.7941426263476217</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2351018798655673</v>
+        <v>0.09917039966153851</v>
       </c>
       <c r="E22">
-        <v>0.1551395107209945</v>
+        <v>0.05090171040576053</v>
       </c>
       <c r="F22">
-        <v>1.026558448265305</v>
+        <v>1.322235937155725</v>
       </c>
       <c r="G22">
-        <v>0.5729489222825066</v>
+        <v>1.130996077460054</v>
       </c>
       <c r="H22">
-        <v>0.5929545856367326</v>
+        <v>0.5785507390170039</v>
       </c>
       <c r="I22">
-        <v>0.3736853646768594</v>
+        <v>0.3572277538565558</v>
       </c>
       <c r="J22">
-        <v>0.1404890886197627</v>
+        <v>0.03587821222364695</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9155191562828549</v>
+        <v>2.55385905960425</v>
       </c>
       <c r="N22">
-        <v>1.583588281711201</v>
+        <v>2.692853122826364</v>
       </c>
       <c r="O22">
-        <v>2.305130077566218</v>
+        <v>3.563054314303315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2672867663774525</v>
+        <v>0.7655908935467437</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2354513073415845</v>
+        <v>0.09807054870628917</v>
       </c>
       <c r="E23">
-        <v>0.1557164518137455</v>
+        <v>0.05084811048026872</v>
       </c>
       <c r="F23">
-        <v>1.017970433851971</v>
+        <v>1.276486045165228</v>
       </c>
       <c r="G23">
-        <v>0.563520115489581</v>
+        <v>1.088084783028108</v>
       </c>
       <c r="H23">
-        <v>0.5899422323240913</v>
+        <v>0.5604183891605317</v>
       </c>
       <c r="I23">
-        <v>0.3727867493082471</v>
+        <v>0.3518005044656789</v>
       </c>
       <c r="J23">
-        <v>0.1412728678924822</v>
+        <v>0.03629371773915935</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.887093512950301</v>
+        <v>2.461287498815196</v>
       </c>
       <c r="N23">
-        <v>1.561356159312879</v>
+        <v>2.622053001850645</v>
       </c>
       <c r="O23">
-        <v>2.278718362981692</v>
+        <v>3.433978726973692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2322264539268986</v>
+        <v>0.6574632656574693</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2369440458836394</v>
+        <v>0.09425634252471582</v>
       </c>
       <c r="E24">
-        <v>0.1580497591262784</v>
+        <v>0.05099429375359676</v>
       </c>
       <c r="F24">
-        <v>0.9864644005635057</v>
+        <v>1.107496088910253</v>
       </c>
       <c r="G24">
-        <v>0.5283885117135725</v>
+        <v>0.9289918482802193</v>
       </c>
       <c r="H24">
-        <v>0.5790491561699014</v>
+        <v>0.4935729499735686</v>
       </c>
       <c r="I24">
-        <v>0.3697547254213589</v>
+        <v>0.3320707561565897</v>
       </c>
       <c r="J24">
-        <v>0.1444063600368697</v>
+        <v>0.03830069850137008</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7792630143476487</v>
+        <v>2.111316899696732</v>
       </c>
       <c r="N24">
-        <v>1.477762366842484</v>
+        <v>2.355765071459416</v>
       </c>
       <c r="O24">
-        <v>2.180973232814523</v>
+        <v>2.956197060759422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1942799304984817</v>
+        <v>0.5407719226674601</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2389165262486372</v>
+        <v>0.09082819207090864</v>
       </c>
       <c r="E25">
-        <v>0.1608826569196502</v>
+        <v>0.05182905730989518</v>
       </c>
       <c r="F25">
-        <v>0.9546563525556877</v>
+        <v>0.9330351756493513</v>
       </c>
       <c r="G25">
-        <v>0.4917247177410076</v>
+        <v>0.7635311059138843</v>
       </c>
       <c r="H25">
-        <v>0.5684021383309528</v>
+        <v>0.4248382964843813</v>
       </c>
       <c r="I25">
-        <v>0.3672853152251996</v>
+        <v>0.3124561397307666</v>
       </c>
       <c r="J25">
-        <v>0.1481374327590608</v>
+        <v>0.04129946032166742</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6626302535026838</v>
+        <v>1.734650441627764</v>
       </c>
       <c r="N25">
-        <v>1.388948871434394</v>
+        <v>2.072160228799987</v>
       </c>
       <c r="O25">
-        <v>2.080413371653037</v>
+        <v>2.460872757335011</v>
       </c>
     </row>
   </sheetData>
